--- a/Texts/Город Сокровищ/Город/Часть города 2.xlsx
+++ b/Texts/Город Сокровищ/Город/Часть города 2.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
